--- a/tabela_final.xlsx
+++ b/tabela_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>sguf</t>
   </si>
@@ -32,27 +32,30 @@
     <t>Não eleitos e perc</t>
   </si>
   <si>
+    <t>*Tot</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
     <t>TO</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
     <t>DF</t>
   </si>
   <si>
-    <t>*Tot</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -137,6 +137,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
   </si>
   <si>
     <t>Amapá</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
   </si>
   <si>
     <t>Maranhão</t>
@@ -354,16 +360,16 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>8.0</v>
+        <v>513.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0</v>
+        <v>468.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="3">
@@ -374,7 +380,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
         <v>8.0</v>
@@ -394,7 +400,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>8.0</v>
@@ -414,7 +420,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
         <v>8.0</v>
@@ -434,7 +440,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
         <v>8.0</v>
@@ -454,7 +460,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
         <v>17.0</v>
@@ -474,7 +480,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
         <v>8.0</v>
@@ -494,16 +500,16 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -514,16 +520,16 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -534,16 +540,16 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="n">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -554,13 +560,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -574,13 +580,13 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -594,16 +600,16 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -614,13 +620,13 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="F15" t="n">
         <v>1.0</v>
@@ -634,16 +640,16 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" t="n">
         <v>8.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -654,16 +660,16 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="E17" t="n">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -674,16 +680,16 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>53.0</v>
+        <v>39.0</v>
       </c>
       <c r="E18" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="F18" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -694,16 +700,16 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
-        <v>10.0</v>
+        <v>53.0</v>
       </c>
       <c r="E19" t="n">
-        <v>8.0</v>
+        <v>48.0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -714,16 +720,16 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -734,16 +740,16 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>70.0</v>
+        <v>46.0</v>
       </c>
       <c r="E21" t="n">
-        <v>62.0</v>
+        <v>43.0</v>
       </c>
       <c r="F21" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -754,16 +760,16 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.0</v>
+        <v>62.0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
@@ -774,16 +780,16 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="E23" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -794,16 +800,16 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" t="n">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c r="E24" t="n">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -814,16 +820,16 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -834,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" t="n">
         <v>8.0</v>
@@ -854,13 +860,13 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="E27" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -874,36 +880,36 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" t="e">
-        <v>#N/A</v>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
       </c>
       <c r="D29" t="n">
-        <v>513.0</v>
+        <v>8.0</v>
       </c>
       <c r="E29" t="n">
-        <v>468.0</v>
+        <v>6.0</v>
       </c>
       <c r="F29" t="n">
-        <v>45.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
